--- a/500all/speech_level/speeches_CHRG-114hhrg98687.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98687.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,45 +52,30 @@
     <t>400048</t>
   </si>
   <si>
-    <t>Corrine Brown</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Brown. Thank you, Mr. Chairman, for having this hearing.    We are here today to discuss some of our most disabled veterans who are receiving individual unemployability.    I think it is important that during this hearing we not lose sight of what we are talking about here. We are not talking about costs or numbers, we are talking about people. Men and women who put everything on the line, were injured greatly, and now receiving additional funds because of an injury that has left them unable to work.    Why have these costs ballooned? As the DAV notes, we have higher numbers of seriously disabled veterans from the wars in Iraq and Afghanistan, VA is completing record numbers of disability claims, VA's intense outreach effort to provide benefits to our veterans, and to the expansion of presumption related to Agent Orange and PTSD.    With that said, there is still work to do. The GAO, in their review of the IU program, identified four areas for improvement. VA concurred with the GAO findings. I look forward to hearing from VA on their progress to complete GAO's recommendations.    Again, these are some of the most vulnerable disabled veterans. Mr. Chairman, I look forward to working with you in a bipartisan spirit of our committee. And I am committed to ensure that our Nation adequately compensates our veterans for their loss in defense of this great Nation.    I want to add a little special note here. I know every member of Congress experience it. I met a veteran with five stars, and that veteran was 10 percent. When I spoke with that veteran VA had been working on his particular case for over 6 years. The veteran, couldn't get adequate information from the Department of Defense. Six years! I worked on his case for 2 months, and this veteran was able to get 70 percent. That is a life-changing event going from 10 percent to 70 percent.    Each Member of Congress Office receives all kind of casework and staff work on it, and it is most satisfying when Members of Congress and their staff are able to help a veteran receive the benefit that they deserve.    With that, Mr. Chairman, I yield back the balance of my time.</t>
   </si>
   <si>
     <t>412310</t>
   </si>
   <si>
-    <t>David P. Roe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Roe [presiding]. I thank the gentlelady for yielding.    I ask that all members waive their opening remarks, as per this committee's custom.    Joining us on our first and only panel this morning are: Mr. Daniel Bertoni, Director of Education, Workforce, and Income Security for the U.S. Government Accountability Office, GAO; Mr. Bradley Flohr, the Senior Advisor, Compensation Service, for the Veterans Benefits Administration; Mr. Paul Varela, the assistant national legislative director for the Disabled American Veterans; and Mr. Ian de Planque, the legislative director for the American Legion.    Your complete written testimonies will be entered into the hearing record.    Mr. Bertoni, you are recognized for 5 minutes.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Bertoni</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bertoni. Mr. Chairman, Ranking Member Brown, members of the committee, good morning. I am pleased to discuss our work on the Department of Veterans Affairs individual unemployability benefit, which is a supplemental benefit that allows veterans to be deemed totally disabled even if they don't meet the criteria for a 100-percent rating.    In fiscal year 2013, over 330,000 of 3.7 million veterans VA-compensated for service-connected disabilities received individual unemployability, or IU, benefits. Moreover, over the last several years, the beneficiary population and program costs have increased steadily, especially among older veterans. And, in fiscal year 2013, disability payments to IU recipients totaled $11 billion.    My testimony discusses age-related trends in the beneficiary population, VA's procedures for benefit decisionmaking, and various options that have been proposed for revising this benefit.    In summary, the number of veterans receiving individual unemployability benefits is increasing and now comprises nearly half of all veterans whose disabilities are rated at 100 percent. Moreover, the number of older beneficiaries, age 65 or older, has also steadily increased and by fiscal year 2013 comprised over half of the beneficiary population, a 73-percent increase over fiscal year 2009 levels. Further, of these older veterans, 57,000 were 75 and older and 11,000 were 90 and older.    The increase in older veterans is mostly driven by new beneficiaries receiving the benefit for the very first time, including over 13,000 veterans age 65 to 90-plus years entering in fiscal year 2013. For that year, we estimate that VA paid $5.2 billion above what veterans would have received in the absence of such a benefit.    We also found that VA's decisional guidance, quality assurance checks, and income verification procedures do not ensure individual employability decisions are well-supported. Specifically, VA's guidance for assessing employability falls short in ensuring consistency, and VA rating specialists we interviewed frequently disagreed on key factors to consider, weighed the same factors differently, and had difficulty separating allowable from nonallowable factors in deciding IU claims. Such challenges create a risk that two raters could examine the same claim and the same evidence and reach opposite decisions to award or deny the claim.    Also, as designed and implemented, VA's quality assurance framework primarily focuses on processing errors and does not ensure a comprehensive assessment of whether award or denial decisions are accurate, complete, and consistent.    In addition, VA does not independently verify self-reported earnings information supplied by applicants and current beneficiaries although the agency has ready access to IRS wage data for this purpose. As a result, the agency risks paying taxpayer dollars to those who may be working in excess of current program earnings limits and are thus ineligible for these benefits.    In our June 2015 report, we identified a number of options proposed by others for revising the IU eligibility requirements and the benefits structure. More specifically, several options proposed changes such as imposing age limits, lowering the disability rating requirement, or increasing income thresholds, while another option would lower but not immediately eliminate benefit payments as beneficiaries earn more income beyond program limits.    Based on our discussions with various experts and stakeholders, we identified a range of strengths and challenges associated with each, such as improved beneficiary targeting and reduced benefit outlays in some instances and potential additional administrative costs and beneficiary equity concerns for others.    VA is currently at a juncture where it is revising its complex, multifaceted disability compensation programs. Concurrent with this effort, VA has the opportunity during its deliberations to benefit from the attention that the IU benefit has received from various experts. Accordingly, these proposed options and the potential strengths and challenges they present warrant thoughtful consideration in any broader benefit refinement analyses and efforts to improve IU benefit design and eligibility criteria going forward.    Mr. Chairman, this concludes my statement. I am happy to answer any questions that you or other members of the committee may have. Thank you.    [The prepared statement of Daniel Bertoni appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Roe. Thank you, Mr. Bertoni.    Mr. Flohr, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Flohr</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Flohr. Mr. Chairman, Ranking Member Brown, and members of the committee, thank you for the opportunity to review with you the issue of individual unemployability.    I will discuss with you what IU is, the criteria and standards used to determine eligibility, VA's quality assurance and training programs, and VA's process to verify earnings and employment information.    IU is the regulatory basis upon which the Department of Veterans Affairs grants entitlement to service-connected disability compensation at the 100-percent rate when a veteran's disabilities do not meet the schedular criteria for a 100-percent rate under VA's schedule for rating disabilities. VA's intent is to ensure that veterans with service-connected disabilities that are not rateable at 100 percent are provided compensation at that rate if it is determined they are precluded from obtaining or maintaining gainful employment as a result of their disabilities.    Authorization for IU was added to the 1933 rating schedule by regulation in 1934. While there is no specific statutory authority for this benefit, there is implicit authority under section 1155 of title 38, U.S.C., which authorizes VA's rating schedule.    The minimum evaluation requirements for consideration of entitlement to IU are a single disability rated at 60 percent or more, and, if there are two or more service-connected disabilities, there must be at least one disability rateable at 40 percent or more and additional disability, resulting in a combined 70-percent evaluation.    Where the rating schedule is found to be inadequate to fairly compensate a veteran for the inability to be gainfully employed, VBA's regional offices may refer cases that fail to meet the minimum combined evaluation criteria to the Director of the Compensation Service for consideration of an IU rating on an extrascheduler basis.    VA determines eligibility for this benefit through development for all evidence that may weigh on the decision in a veteran's claim. The application for IU requires the veteran to furnish an employment history for the 5-year period preceding the date on which the veteran last worked. VA contacts these employers and asks them to provide information concerning the veteran's employment, the reasons for termination of the employment, the type of work performed, and the dates of employment.    VA will also request records from the Social Security Administration if the veteran is under age 65 and there is an indication that he or she is in receipt of Social Security Disability Insurance and from VA's Vocational Rehabilitation and Employment Service if there is an indication that the veteran has applied for or participated in that program. In addition, if the decisionmaker determines current medical information is necessary, a VA examination will be ordered.    VBA requires all veteran service representatives and rating veteran service representatives to complete Web-based training on IU following completion of their initial Challenge training. The Challenge program consists of a national technical training curriculum that provides new veterans service center employees with the skills they need to function effectively as VSRs and RVSRs.    Upon successful completion of Challenge, VSRs have 90 days to complete the training and RVSRs have 60 days to complete the training. The 5-hour Web-based VSR-IU course enables the students to learn about the benefit, the eligibility requirements, and the evidence needed to process a claim. The RVSR Web-based course is 2 hours of training, covering the definition of IU, eligibility criteria, evidence requirements, effective dates, and preparing the rating decision.    Additional IU training was provided to RVSRs in 2014. As a result, during the first two quarters of fiscal year 2015, VA's accuracy rate for IU decisions based on our national Systematic Technical Accuracy Review is 94 percent. The most common errors are the failure to properly consider earlier effective dates and to infer IU in appropriate cases.    Once a veteran is awarded IU benefits, he or she is required to submit an annual employment certification until the age of 70. The veteran must list all employment for the preceding 12-month period. VA uses the certification to verify continued entitlement to IU. Failure to return the form will cause VA to send the veteran a due-process notice of the potential reduction of the monthly benefit payment to the rate for the actual combined disability evaluation.    Currently, Compensation Service is developing a method to review all IU recipients' wage income annually to ensure the integrity of the program. Under the revised post-award audit process, VA will conduct a data match of IU recipients with SSA. Once SSA runs the data file against the records in their system, VA will exclude veterans whose earned income is below the poverty threshold. The poverty threshold is based on the Census Bureau poverty level, currently $11,655 for one person.    The IU benefit fills a critical gap when the ratings schedule fails to fully address the impact of disability in a specific veteran's circumstances. VA is responsible for ensuring that those who served this Nation and have been disabled during that service are fully compensated for their disabilities.    VA continues to review the IU program for potential improvements, including a current review of the program from both the compensation and vocational rehabilitation and employment perspective.    Thank you for this opportunity to be here today.    [The prepared statement of Bradley Flohr appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Roe. Thank you, Mr. Flohr.    Mr. Varela, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Varela</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Varela. Chairman Miller, Ranking Member Brown, and members of the committee, thank you for inviting DAV to testify at today's hearing.    DAV is comprised of 1.3 million wartime service-disabled veterans, and we are dedicated to a single purpose: empowering veterans to lead high-quality lives with respect and dignity.    For veterans who aren't able to work because of service-connected disabilities but do not meet the requirements for a 100-percent rating, VA has established special provisions for awarding total disability ratings based on individual unemployability, or IU.    The main question at issue in IU claims is whether a veteran can engage in substantially gainful employment due to service-connected disabilities. Any subtle change in a veteran's physical or mental capacity may cause poor performance in a work setting that an employer could find unacceptable, thus leading to loss of employment opportunities.    Some veterans will become unemployable as their disabilities worsen with age. However, age is not a factor in IU determinations, nor should it be. Unlike VA pension benefits and Social Security Disability Insurance benefits, where age is appropriately considered in determining entitlement, consideration of age as a factor in IU claims would be inappropriate.    The idea that Americans do not aspire for greater personal and economic prosperity beyond a certain age can easily be dispelled by the number of people working beyond normal retirement age. Just look in the House and the Senate, where many of your colleagues continue to work productively into their 70s and some into their 80s.    We realize that VA's IU regulations and policies are imperfect but believe the current rules for the most part prescribe consideration of the appropriate factors. VA adjudicators must perform careful examination of the facts and exercise well-informed and well-reasoned judgments.    We believe most veterans would prefer to work if capable to do so, and experience has shown that VA adjudicators are not particularly liberal in awarding IU benefits.    DAV recognizes the growth in IU claims for fiscal years 2009 through 2013 but believes this growth is consistent with the pattern of higher numbers of more seriously disabled veterans returning from the wars in Iraq and Afghanistan, increased claims processing, intense outreach efforts, expansions of presumptive disabilities, and new rules governing claims for post-traumatic stress disorder. Consider that in 2009 VA changed its policy relative to claims processing for PTSD cases and in 2010 VA added three new presumptive disabilities related to Agent Orange exposure.    For these reasons, increasing numbers of veterans receiving IU benefits, as reported by CBO in 2014 and by GAO in 2015, does not, in our view, signal a failure or fault in the administration of this benefit.    In the August 2014 CBO report, it states, ``VA reviews the employment history of IU applicants but does not require those veterans to have their employability assessed by the Department's vocational rehabilitation program.'' This suggests that a determination of IU could be made contingent upon a vocational rehabilitation evaluation and determination. This additional administrative step would add unnecessary delay and undoubtedly place a greater burden upon veterans seeking timely decisions for adequate compensation to maintain a basic standard of living.    In the June 2015 GAO report on IU, several options were noted to revise IU eligibility requirements and restructure the administration of this benefit. These options consisted of discontinuing IU beyond retirement age, a vocational assessment prior to awarding IU, gradually reducing IU payments, increasing earning limits, lowering disability rating criteria, adding new IU criteria, and developing a new patient-centered work disability measure.    DAV would strongly oppose any legislation or recommendation that would restrict IU entitlement on the basis of age, delay processing of IU claims due to increased administrative requirements, or reduce IU payments prior to a veteran demonstrating sustained and gainful employment.    We would strongly oppose any measure that proposes to offset the payment of any other Federal benefit or other earned benefit entitlement by VA compensation payments. Reducing a benefit provided to a veteran in receipt of IU due to receipt of a different benefit offered through a separate benefit program would be viewed as an unjust penalty.    DAV supports lowering the rating criteria for IU for veterans with multiple disabilities to a combined disability rating of 60 percent, rather than the 70 percent, and eliminating the requirement that one of the disabilities have a minimum rating of 40 percent.    In closing, DAV appreciates the opportunity to discuss the merits and our concerns regarding the administration of VA's IU benefit. IU provides payments at the 100-percent rate that affords considerable financial relief for veterans when employment opportunities diminish because of the wounds, injuries, and illnesses sustained as a consequence of active military service.    This concludes my testimony, Mr. Chairman. I am prepared to answer any questions from you or other members of the committee. Thank you.    [The prepared statement of Paul Varela appears in the Appendix]</t>
   </si>
   <si>
@@ -124,9 +109,6 @@
     <t>412520</t>
   </si>
   <si>
-    <t>Mark Takano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Takano. Dr. Roe, I understand your point about the straight-face test. I hadn't been aware of applicants for this benefit. They were--so some of them were in the workforce, they stopped working, and then come in and apply for the benefit.    But I would like to hear a response from Mr. Varela or Mr. de Planque about this, sort of, straight-face test situation. Are there alternative explanations for why people might be doing these sort of things? Applicants.    Yes, go ahead.</t>
   </si>
   <si>
@@ -166,9 +148,6 @@
     <t xml:space="preserve">    Dr. Roe. Thank you.    Mr. O'Rourke you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>O'Rourke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Dr. Roe.    Just following this line of questioning, for Mr. Flohr or Mr. Bertoni, if you have these numbers, in terms of the goal of returning veterans who are unemployable to employable status, what kind of numbers do we have on that? What has been the success rate?</t>
   </si>
   <si>
@@ -227,9 +206,6 @@
   </si>
   <si>
     <t>412189</t>
-  </si>
-  <si>
-    <t>Jerry McNerney</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. McNerney. Thank you, Mr. Chairman.    And thanks for testifying this morning.    Mr. Bertoni, you mentioned the inconsistency in awarding, and that has sort of been echoed. Mr. de Planque said that was one of the big problems.    Are your recommendations aimed at improving the consistency in awarding IU?</t>
@@ -823,11 +799,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -847,13 +821,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -873,13 +845,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -899,13 +869,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -925,13 +893,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -951,13 +917,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -977,13 +941,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1003,13 +965,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1029,13 +989,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1055,13 +1013,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1081,13 +1037,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1107,13 +1061,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1133,13 +1085,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1159,13 +1109,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1185,13 +1133,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1211,13 +1157,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1237,13 +1181,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1263,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1289,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1315,13 +1253,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1341,13 +1277,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s">
-        <v>24</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1367,13 +1301,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
         <v>36</v>
-      </c>
-      <c r="H23" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1393,13 +1325,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1419,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1445,13 +1373,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1471,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1497,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1523,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1549,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1575,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1601,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1627,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1653,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1679,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1705,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1731,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
         <v>50</v>
-      </c>
-      <c r="H37" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1757,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1783,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1809,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1835,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1861,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1887,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s">
-        <v>24</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1913,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1939,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1965,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1991,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2017,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2043,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2069,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>70</v>
-      </c>
-      <c r="G50" t="s">
-        <v>71</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2095,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2121,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>70</v>
-      </c>
-      <c r="G52" t="s">
-        <v>71</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2147,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2173,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>70</v>
-      </c>
-      <c r="G54" t="s">
-        <v>71</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2199,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2225,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
         <v>70</v>
-      </c>
-      <c r="G56" t="s">
-        <v>71</v>
-      </c>
-      <c r="H56" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2251,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>70</v>
-      </c>
-      <c r="G57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
         <v>71</v>
-      </c>
-      <c r="H57" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2277,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2303,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>70</v>
-      </c>
-      <c r="G59" t="s">
-        <v>71</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2329,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2355,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>70</v>
-      </c>
-      <c r="G61" t="s">
-        <v>71</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2381,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2407,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>70</v>
-      </c>
-      <c r="G63" t="s">
-        <v>71</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2433,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2459,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>70</v>
-      </c>
-      <c r="G65" t="s">
-        <v>71</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2485,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2511,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>70</v>
-      </c>
-      <c r="G67" t="s">
-        <v>71</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2537,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2563,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>70</v>
-      </c>
-      <c r="G69" t="s">
-        <v>71</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2589,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2615,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>70</v>
-      </c>
-      <c r="G71" t="s">
-        <v>71</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2641,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2667,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>70</v>
-      </c>
-      <c r="G73" t="s">
-        <v>71</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2693,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2719,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2745,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2771,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2797,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2823,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2849,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2875,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2901,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2927,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2953,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2979,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3005,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
-      </c>
-      <c r="G86" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3031,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3057,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3083,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3109,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3135,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3161,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3187,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3213,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3239,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3265,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3291,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3317,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98" t="s">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3343,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" t="s">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3369,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3395,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
-      </c>
-      <c r="G101" t="s">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3421,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
-      </c>
-      <c r="G102" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3447,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
-      </c>
-      <c r="G103" t="s">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3473,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
-      </c>
-      <c r="G104" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3499,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
-      </c>
-      <c r="G105" t="s">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3525,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
-      </c>
-      <c r="G106" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3551,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
-      </c>
-      <c r="G107" t="s">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3577,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
-      </c>
-      <c r="G108" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3603,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
-      </c>
-      <c r="G109" t="s">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3629,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3655,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>17</v>
-      </c>
-      <c r="G111" t="s">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3681,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>17</v>
-      </c>
-      <c r="G112" t="s">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3707,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3733,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98687.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98687.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,30 +55,51 @@
     <t>400048</t>
   </si>
   <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Corrine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Brown. Thank you, Mr. Chairman, for having this hearing.    We are here today to discuss some of our most disabled veterans who are receiving individual unemployability.    I think it is important that during this hearing we not lose sight of what we are talking about here. We are not talking about costs or numbers, we are talking about people. Men and women who put everything on the line, were injured greatly, and now receiving additional funds because of an injury that has left them unable to work.    Why have these costs ballooned? As the DAV notes, we have higher numbers of seriously disabled veterans from the wars in Iraq and Afghanistan, VA is completing record numbers of disability claims, VA's intense outreach effort to provide benefits to our veterans, and to the expansion of presumption related to Agent Orange and PTSD.    With that said, there is still work to do. The GAO, in their review of the IU program, identified four areas for improvement. VA concurred with the GAO findings. I look forward to hearing from VA on their progress to complete GAO's recommendations.    Again, these are some of the most vulnerable disabled veterans. Mr. Chairman, I look forward to working with you in a bipartisan spirit of our committee. And I am committed to ensure that our Nation adequately compensates our veterans for their loss in defense of this great Nation.    I want to add a little special note here. I know every member of Congress experience it. I met a veteran with five stars, and that veteran was 10 percent. When I spoke with that veteran VA had been working on his particular case for over 6 years. The veteran, couldn't get adequate information from the Department of Defense. Six years! I worked on his case for 2 months, and this veteran was able to get 70 percent. That is a life-changing event going from 10 percent to 70 percent.    Each Member of Congress Office receives all kind of casework and staff work on it, and it is most satisfying when Members of Congress and their staff are able to help a veteran receive the benefit that they deserve.    With that, Mr. Chairman, I yield back the balance of my time.</t>
   </si>
   <si>
     <t>412310</t>
   </si>
   <si>
+    <t>Roe</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Roe [presiding]. I thank the gentlelady for yielding.    I ask that all members waive their opening remarks, as per this committee's custom.    Joining us on our first and only panel this morning are: Mr. Daniel Bertoni, Director of Education, Workforce, and Income Security for the U.S. Government Accountability Office, GAO; Mr. Bradley Flohr, the Senior Advisor, Compensation Service, for the Veterans Benefits Administration; Mr. Paul Varela, the assistant national legislative director for the Disabled American Veterans; and Mr. Ian de Planque, the legislative director for the American Legion.    Your complete written testimonies will be entered into the hearing record.    Mr. Bertoni, you are recognized for 5 minutes.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Bertoni</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bertoni. Mr. Chairman, Ranking Member Brown, members of the committee, good morning. I am pleased to discuss our work on the Department of Veterans Affairs individual unemployability benefit, which is a supplemental benefit that allows veterans to be deemed totally disabled even if they don't meet the criteria for a 100-percent rating.    In fiscal year 2013, over 330,000 of 3.7 million veterans VA-compensated for service-connected disabilities received individual unemployability, or IU, benefits. Moreover, over the last several years, the beneficiary population and program costs have increased steadily, especially among older veterans. And, in fiscal year 2013, disability payments to IU recipients totaled $11 billion.    My testimony discusses age-related trends in the beneficiary population, VA's procedures for benefit decisionmaking, and various options that have been proposed for revising this benefit.    In summary, the number of veterans receiving individual unemployability benefits is increasing and now comprises nearly half of all veterans whose disabilities are rated at 100 percent. Moreover, the number of older beneficiaries, age 65 or older, has also steadily increased and by fiscal year 2013 comprised over half of the beneficiary population, a 73-percent increase over fiscal year 2009 levels. Further, of these older veterans, 57,000 were 75 and older and 11,000 were 90 and older.    The increase in older veterans is mostly driven by new beneficiaries receiving the benefit for the very first time, including over 13,000 veterans age 65 to 90-plus years entering in fiscal year 2013. For that year, we estimate that VA paid $5.2 billion above what veterans would have received in the absence of such a benefit.    We also found that VA's decisional guidance, quality assurance checks, and income verification procedures do not ensure individual employability decisions are well-supported. Specifically, VA's guidance for assessing employability falls short in ensuring consistency, and VA rating specialists we interviewed frequently disagreed on key factors to consider, weighed the same factors differently, and had difficulty separating allowable from nonallowable factors in deciding IU claims. Such challenges create a risk that two raters could examine the same claim and the same evidence and reach opposite decisions to award or deny the claim.    Also, as designed and implemented, VA's quality assurance framework primarily focuses on processing errors and does not ensure a comprehensive assessment of whether award or denial decisions are accurate, complete, and consistent.    In addition, VA does not independently verify self-reported earnings information supplied by applicants and current beneficiaries although the agency has ready access to IRS wage data for this purpose. As a result, the agency risks paying taxpayer dollars to those who may be working in excess of current program earnings limits and are thus ineligible for these benefits.    In our June 2015 report, we identified a number of options proposed by others for revising the IU eligibility requirements and the benefits structure. More specifically, several options proposed changes such as imposing age limits, lowering the disability rating requirement, or increasing income thresholds, while another option would lower but not immediately eliminate benefit payments as beneficiaries earn more income beyond program limits.    Based on our discussions with various experts and stakeholders, we identified a range of strengths and challenges associated with each, such as improved beneficiary targeting and reduced benefit outlays in some instances and potential additional administrative costs and beneficiary equity concerns for others.    VA is currently at a juncture where it is revising its complex, multifaceted disability compensation programs. Concurrent with this effort, VA has the opportunity during its deliberations to benefit from the attention that the IU benefit has received from various experts. Accordingly, these proposed options and the potential strengths and challenges they present warrant thoughtful consideration in any broader benefit refinement analyses and efforts to improve IU benefit design and eligibility criteria going forward.    Mr. Chairman, this concludes my statement. I am happy to answer any questions that you or other members of the committee may have. Thank you.    [The prepared statement of Daniel Bertoni appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Roe. Thank you, Mr. Bertoni.    Mr. Flohr, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Flohr</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Flohr. Mr. Chairman, Ranking Member Brown, and members of the committee, thank you for the opportunity to review with you the issue of individual unemployability.    I will discuss with you what IU is, the criteria and standards used to determine eligibility, VA's quality assurance and training programs, and VA's process to verify earnings and employment information.    IU is the regulatory basis upon which the Department of Veterans Affairs grants entitlement to service-connected disability compensation at the 100-percent rate when a veteran's disabilities do not meet the schedular criteria for a 100-percent rate under VA's schedule for rating disabilities. VA's intent is to ensure that veterans with service-connected disabilities that are not rateable at 100 percent are provided compensation at that rate if it is determined they are precluded from obtaining or maintaining gainful employment as a result of their disabilities.    Authorization for IU was added to the 1933 rating schedule by regulation in 1934. While there is no specific statutory authority for this benefit, there is implicit authority under section 1155 of title 38, U.S.C., which authorizes VA's rating schedule.    The minimum evaluation requirements for consideration of entitlement to IU are a single disability rated at 60 percent or more, and, if there are two or more service-connected disabilities, there must be at least one disability rateable at 40 percent or more and additional disability, resulting in a combined 70-percent evaluation.    Where the rating schedule is found to be inadequate to fairly compensate a veteran for the inability to be gainfully employed, VBA's regional offices may refer cases that fail to meet the minimum combined evaluation criteria to the Director of the Compensation Service for consideration of an IU rating on an extrascheduler basis.    VA determines eligibility for this benefit through development for all evidence that may weigh on the decision in a veteran's claim. The application for IU requires the veteran to furnish an employment history for the 5-year period preceding the date on which the veteran last worked. VA contacts these employers and asks them to provide information concerning the veteran's employment, the reasons for termination of the employment, the type of work performed, and the dates of employment.    VA will also request records from the Social Security Administration if the veteran is under age 65 and there is an indication that he or she is in receipt of Social Security Disability Insurance and from VA's Vocational Rehabilitation and Employment Service if there is an indication that the veteran has applied for or participated in that program. In addition, if the decisionmaker determines current medical information is necessary, a VA examination will be ordered.    VBA requires all veteran service representatives and rating veteran service representatives to complete Web-based training on IU following completion of their initial Challenge training. The Challenge program consists of a national technical training curriculum that provides new veterans service center employees with the skills they need to function effectively as VSRs and RVSRs.    Upon successful completion of Challenge, VSRs have 90 days to complete the training and RVSRs have 60 days to complete the training. The 5-hour Web-based VSR-IU course enables the students to learn about the benefit, the eligibility requirements, and the evidence needed to process a claim. The RVSR Web-based course is 2 hours of training, covering the definition of IU, eligibility criteria, evidence requirements, effective dates, and preparing the rating decision.    Additional IU training was provided to RVSRs in 2014. As a result, during the first two quarters of fiscal year 2015, VA's accuracy rate for IU decisions based on our national Systematic Technical Accuracy Review is 94 percent. The most common errors are the failure to properly consider earlier effective dates and to infer IU in appropriate cases.    Once a veteran is awarded IU benefits, he or she is required to submit an annual employment certification until the age of 70. The veteran must list all employment for the preceding 12-month period. VA uses the certification to verify continued entitlement to IU. Failure to return the form will cause VA to send the veteran a due-process notice of the potential reduction of the monthly benefit payment to the rate for the actual combined disability evaluation.    Currently, Compensation Service is developing a method to review all IU recipients' wage income annually to ensure the integrity of the program. Under the revised post-award audit process, VA will conduct a data match of IU recipients with SSA. Once SSA runs the data file against the records in their system, VA will exclude veterans whose earned income is below the poverty threshold. The poverty threshold is based on the Census Bureau poverty level, currently $11,655 for one person.    The IU benefit fills a critical gap when the ratings schedule fails to fully address the impact of disability in a specific veteran's circumstances. VA is responsible for ensuring that those who served this Nation and have been disabled during that service are fully compensated for their disabilities.    VA continues to review the IU program for potential improvements, including a current review of the program from both the compensation and vocational rehabilitation and employment perspective.    Thank you for this opportunity to be here today.    [The prepared statement of Bradley Flohr appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Roe. Thank you, Mr. Flohr.    Mr. Varela, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Varela</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Varela. Chairman Miller, Ranking Member Brown, and members of the committee, thank you for inviting DAV to testify at today's hearing.    DAV is comprised of 1.3 million wartime service-disabled veterans, and we are dedicated to a single purpose: empowering veterans to lead high-quality lives with respect and dignity.    For veterans who aren't able to work because of service-connected disabilities but do not meet the requirements for a 100-percent rating, VA has established special provisions for awarding total disability ratings based on individual unemployability, or IU.    The main question at issue in IU claims is whether a veteran can engage in substantially gainful employment due to service-connected disabilities. Any subtle change in a veteran's physical or mental capacity may cause poor performance in a work setting that an employer could find unacceptable, thus leading to loss of employment opportunities.    Some veterans will become unemployable as their disabilities worsen with age. However, age is not a factor in IU determinations, nor should it be. Unlike VA pension benefits and Social Security Disability Insurance benefits, where age is appropriately considered in determining entitlement, consideration of age as a factor in IU claims would be inappropriate.    The idea that Americans do not aspire for greater personal and economic prosperity beyond a certain age can easily be dispelled by the number of people working beyond normal retirement age. Just look in the House and the Senate, where many of your colleagues continue to work productively into their 70s and some into their 80s.    We realize that VA's IU regulations and policies are imperfect but believe the current rules for the most part prescribe consideration of the appropriate factors. VA adjudicators must perform careful examination of the facts and exercise well-informed and well-reasoned judgments.    We believe most veterans would prefer to work if capable to do so, and experience has shown that VA adjudicators are not particularly liberal in awarding IU benefits.    DAV recognizes the growth in IU claims for fiscal years 2009 through 2013 but believes this growth is consistent with the pattern of higher numbers of more seriously disabled veterans returning from the wars in Iraq and Afghanistan, increased claims processing, intense outreach efforts, expansions of presumptive disabilities, and new rules governing claims for post-traumatic stress disorder. Consider that in 2009 VA changed its policy relative to claims processing for PTSD cases and in 2010 VA added three new presumptive disabilities related to Agent Orange exposure.    For these reasons, increasing numbers of veterans receiving IU benefits, as reported by CBO in 2014 and by GAO in 2015, does not, in our view, signal a failure or fault in the administration of this benefit.    In the August 2014 CBO report, it states, ``VA reviews the employment history of IU applicants but does not require those veterans to have their employability assessed by the Department's vocational rehabilitation program.'' This suggests that a determination of IU could be made contingent upon a vocational rehabilitation evaluation and determination. This additional administrative step would add unnecessary delay and undoubtedly place a greater burden upon veterans seeking timely decisions for adequate compensation to maintain a basic standard of living.    In the June 2015 GAO report on IU, several options were noted to revise IU eligibility requirements and restructure the administration of this benefit. These options consisted of discontinuing IU beyond retirement age, a vocational assessment prior to awarding IU, gradually reducing IU payments, increasing earning limits, lowering disability rating criteria, adding new IU criteria, and developing a new patient-centered work disability measure.    DAV would strongly oppose any legislation or recommendation that would restrict IU entitlement on the basis of age, delay processing of IU claims due to increased administrative requirements, or reduce IU payments prior to a veteran demonstrating sustained and gainful employment.    We would strongly oppose any measure that proposes to offset the payment of any other Federal benefit or other earned benefit entitlement by VA compensation payments. Reducing a benefit provided to a veteran in receipt of IU due to receipt of a different benefit offered through a separate benefit program would be viewed as an unjust penalty.    DAV supports lowering the rating criteria for IU for veterans with multiple disabilities to a combined disability rating of 60 percent, rather than the 70 percent, and eliminating the requirement that one of the disabilities have a minimum rating of 40 percent.    In closing, DAV appreciates the opportunity to discuss the merits and our concerns regarding the administration of VA's IU benefit. IU provides payments at the 100-percent rate that affords considerable financial relief for veterans when employment opportunities diminish because of the wounds, injuries, and illnesses sustained as a consequence of active military service.    This concludes my testimony, Mr. Chairman. I am prepared to answer any questions from you or other members of the committee. Thank you.    [The prepared statement of Paul Varela appears in the Appendix]</t>
   </si>
   <si>
@@ -109,6 +133,12 @@
     <t>412520</t>
   </si>
   <si>
+    <t>Takano</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Takano. Dr. Roe, I understand your point about the straight-face test. I hadn't been aware of applicants for this benefit. They were--so some of them were in the workforce, they stopped working, and then come in and apply for the benefit.    But I would like to hear a response from Mr. Varela or Mr. de Planque about this, sort of, straight-face test situation. Are there alternative explanations for why people might be doing these sort of things? Applicants.    Yes, go ahead.</t>
   </si>
   <si>
@@ -148,6 +178,9 @@
     <t xml:space="preserve">    Dr. Roe. Thank you.    Mr. O'Rourke you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>O'Rourke</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Dr. Roe.    Just following this line of questioning, for Mr. Flohr or Mr. Bertoni, if you have these numbers, in terms of the goal of returning veterans who are unemployable to employable status, what kind of numbers do we have on that? What has been the success rate?</t>
   </si>
   <si>
@@ -206,6 +239,12 @@
   </si>
   <si>
     <t>412189</t>
+  </si>
+  <si>
+    <t>McNerney</t>
+  </si>
+  <si>
+    <t>Jerry</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. McNerney. Thank you, Mr. Chairman.    And thanks for testifying this morning.    Mr. Bertoni, you mentioned the inconsistency in awarding, and that has sort of been echoed. Mr. de Planque said that was one of the big problems.    Are your recommendations aimed at improving the consistency in awarding IU?</t>
@@ -749,7 +788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,7 +796,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,2717 +818,3157 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
       <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G27" t="s">
+        <v>39</v>
+      </c>
       <c r="H27" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G29" t="s">
+        <v>39</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G44" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
+        <v>54</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G48" t="s">
+        <v>54</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G50" t="s">
+        <v>75</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G52" t="s">
+        <v>75</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G54" t="s">
+        <v>75</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G55" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G56" t="s">
+        <v>75</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G57" t="s">
+        <v>75</v>
+      </c>
       <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G59" t="s">
+        <v>75</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>63</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G61" t="s">
+        <v>75</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>63</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G63" t="s">
+        <v>75</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G65" t="s">
+        <v>75</v>
+      </c>
       <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G66" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>63</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G67" t="s">
+        <v>75</v>
+      </c>
       <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G68" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>63</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G69" t="s">
+        <v>75</v>
+      </c>
       <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G70" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>63</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G71" t="s">
+        <v>75</v>
+      </c>
       <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>63</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G73" t="s">
+        <v>75</v>
+      </c>
       <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G74" t="s">
+        <v>24</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
       <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G76" t="s">
+        <v>24</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
       <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G78" t="s">
+        <v>24</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
       <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G80" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
       <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G82" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
       <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G84" t="s">
+        <v>24</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
       <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
       <c r="H87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>15</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G88" t="s">
+        <v>24</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
       <c r="H89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G90" t="s">
+        <v>24</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>17</v>
+      </c>
       <c r="H91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I91" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G92" t="s">
+        <v>24</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>17</v>
+      </c>
       <c r="H93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G94" t="s">
+        <v>24</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
       <c r="H95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I95" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>15</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G96" t="s">
+        <v>24</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>17</v>
+      </c>
       <c r="H97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I97" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>15</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G98" t="s">
+        <v>54</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G99" t="s">
+        <v>54</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
       <c r="H100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>15</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G101" t="s">
+        <v>54</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>15</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G102" t="s">
+        <v>24</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G103" t="s">
+        <v>54</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>15</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G104" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>15</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G105" t="s">
+        <v>54</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>15</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G106" t="s">
+        <v>21</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>15</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G107" t="s">
+        <v>54</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>15</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G108" t="s">
+        <v>21</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>15</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G109" t="s">
+        <v>54</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s">
+        <v>17</v>
+      </c>
       <c r="H110" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I110" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>15</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G111" t="s">
+        <v>54</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>15</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G112" t="s">
+        <v>54</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>17</v>
+      </c>
       <c r="H113" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I113" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s">
+        <v>17</v>
+      </c>
       <c r="H114" t="s">
-        <v>128</v>
+        <v>18</v>
+      </c>
+      <c r="I114" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98687.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98687.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400048</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Brown</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t>412310</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Roe</t>
@@ -788,7 +797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -796,7 +805,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,3154 +830,3368 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
         <v>20</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I12" t="s">
         <v>21</v>
       </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>54</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>54</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s">
-        <v>54</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>54</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s">
-        <v>54</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>54</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>57</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s">
-        <v>54</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>24</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>54</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>54</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>57</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I52" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s">
-        <v>21</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s">
-        <v>21</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G57" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>21</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G59" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s">
-        <v>24</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>24</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>27</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G63" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>27</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G65" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s">
-        <v>24</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>27</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G67" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I67" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" t="s">
-        <v>24</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>27</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G69" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I69" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" t="s">
-        <v>24</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>27</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G71" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>27</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G73" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" t="s">
-        <v>24</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>27</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" t="s">
-        <v>24</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>27</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G77" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H77" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I77" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" t="s">
-        <v>24</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>27</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G79" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H79" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I79" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" t="s">
-        <v>24</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>27</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G81" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H81" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" t="s">
-        <v>24</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>27</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G83" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H83" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" t="s">
-        <v>24</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>27</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I85" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G87" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I87" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" t="s">
-        <v>24</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>27</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G89" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H89" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I89" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J89" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" t="s">
-        <v>24</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>27</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G91" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H91" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I91" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" t="s">
-        <v>24</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>27</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G93" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H93" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I93" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" t="s">
-        <v>24</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>27</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G95" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H95" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I95" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J95" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" t="s">
-        <v>24</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>27</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G97" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H97" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I97" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" t="s">
-        <v>54</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>57</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" t="s">
-        <v>54</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>57</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G100" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I100" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J100" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" t="s">
-        <v>54</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>57</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" t="s">
-        <v>24</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>27</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" t="s">
-        <v>54</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>57</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
-      </c>
-      <c r="G104" t="s">
-        <v>24</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>27</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" t="s">
-        <v>54</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>57</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>20</v>
-      </c>
-      <c r="G106" t="s">
-        <v>21</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>24</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" t="s">
-        <v>54</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>57</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>20</v>
-      </c>
-      <c r="G108" t="s">
-        <v>21</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>24</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" t="s">
-        <v>54</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>57</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G110" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H110" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I110" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="s">
-        <v>54</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>57</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
-      </c>
-      <c r="G112" t="s">
-        <v>54</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>57</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G113" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H113" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I113" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G114" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H114" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I114" t="s">
-        <v>141</v>
+        <v>21</v>
+      </c>
+      <c r="J114" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
